--- a/Emircom/src/test/resources/test/LogIn.xlsx
+++ b/Emircom/src/test/resources/test/LogIn.xlsx
@@ -196,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,12 +248,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,76 +588,76 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1207,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1229,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="26" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
